--- a/data-raw/unhcr_2021/iati_budget.xlsx
+++ b/data-raw/unhcr_2021/iati_budget.xlsx
@@ -405,6 +405,11 @@
           <t>XM-DAC-41121-2021-AME-ARGMCO</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>2</t>
@@ -432,7 +437,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>39021496.01</t>
+          <t>39021496</t>
         </is>
       </c>
     </row>
@@ -442,6 +447,11 @@
           <t>XM-DAC-41121-2021-AME-BRA</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>2</t>
@@ -469,7 +479,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>52614196.443</t>
+          <t>52614196</t>
         </is>
       </c>
     </row>
@@ -479,6 +489,11 @@
           <t>XM-DAC-41121-2021-AME-CAN</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>2</t>
@@ -506,7 +521,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2230518.88</t>
+          <t>2230519</t>
         </is>
       </c>
     </row>
@@ -516,6 +531,11 @@
           <t>XM-DAC-41121-2021-AME-COL</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>2</t>
@@ -543,7 +563,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>124793156.151</t>
+          <t>124793156</t>
         </is>
       </c>
     </row>
@@ -553,6 +573,11 @@
           <t>XM-DAC-41121-2021-AME-CRI</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>2</t>
@@ -580,7 +605,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>32212823.2</t>
+          <t>32212823</t>
         </is>
       </c>
     </row>
@@ -590,6 +615,11 @@
           <t>XM-DAC-41121-2021-AME-ECU</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>2</t>
@@ -617,7 +647,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>84721209.6</t>
+          <t>84721210</t>
         </is>
       </c>
     </row>
@@ -627,6 +657,11 @@
           <t>XM-DAC-41121-2021-AME-GTM</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>2</t>
@@ -654,7 +689,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>39297916.92</t>
+          <t>39297917</t>
         </is>
       </c>
     </row>
@@ -664,6 +699,11 @@
           <t>XM-DAC-41121-2021-AME-HND</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>2</t>
@@ -691,7 +731,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>26703788.8</t>
+          <t>26703789</t>
         </is>
       </c>
     </row>
@@ -701,6 +741,11 @@
           <t>XM-DAC-41121-2021-AME-MEX</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>2</t>
@@ -728,7 +773,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>74634193.299</t>
+          <t>75589193</t>
         </is>
       </c>
     </row>
@@ -738,6 +783,11 @@
           <t>XM-DAC-41121-2021-AME-PANMCO</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>2</t>
@@ -765,7 +815,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>48783345.142</t>
+          <t>48013345</t>
         </is>
       </c>
     </row>
@@ -775,6 +825,11 @@
           <t>XM-DAC-41121-2021-AME-PER</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>2</t>
@@ -802,7 +857,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>61027480.08</t>
+          <t>61027480</t>
         </is>
       </c>
     </row>
@@ -812,6 +867,11 @@
           <t>XM-DAC-41121-2021-AME-RA</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>2</t>
@@ -839,7 +899,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10391316.53</t>
+          <t>10206317</t>
         </is>
       </c>
     </row>
@@ -849,6 +909,11 @@
           <t>XM-DAC-41121-2021-AME-RB</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>2</t>
@@ -876,7 +941,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>17194291.26</t>
+          <t>17194291</t>
         </is>
       </c>
     </row>
@@ -886,6 +951,11 @@
           <t>XM-DAC-41121-2021-AME-SLV</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>2</t>
@@ -913,7 +983,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21829515.75</t>
+          <t>21829516</t>
         </is>
       </c>
     </row>
@@ -923,6 +993,11 @@
           <t>XM-DAC-41121-2021-AME-USAMCO</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>2</t>
@@ -950,7 +1025,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>33938890.035</t>
+          <t>33938890</t>
         </is>
       </c>
     </row>
@@ -960,6 +1035,11 @@
           <t>XM-DAC-41121-2021-AME-VEN</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>2</t>
@@ -987,7 +1067,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>61374589.46</t>
+          <t>61374589</t>
         </is>
       </c>
     </row>
@@ -997,6 +1077,11 @@
           <t>XM-DAC-41121-2021-ASO-AFG</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>2</t>
@@ -1024,7 +1109,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>142377682.467</t>
+          <t>142377682</t>
         </is>
       </c>
     </row>
@@ -1034,6 +1119,11 @@
           <t>XM-DAC-41121-2021-ASO-AUSMCO</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>2</t>
@@ -1061,7 +1151,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3473810.74</t>
+          <t>3473811</t>
         </is>
       </c>
     </row>
@@ -1071,6 +1161,11 @@
           <t>XM-DAC-41121-2021-ASO-BGD</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>2</t>
@@ -1098,7 +1193,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>295134921.211</t>
+          <t>295134921</t>
         </is>
       </c>
     </row>
@@ -1108,6 +1203,11 @@
           <t>XM-DAC-41121-2021-ASO-CHN</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>2</t>
@@ -1135,7 +1235,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4043840.83</t>
+          <t>4043841</t>
         </is>
       </c>
     </row>
@@ -1145,6 +1245,11 @@
           <t>XM-DAC-41121-2021-ASO-IDN</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>2</t>
@@ -1172,7 +1277,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>17981909.22</t>
+          <t>17981909</t>
         </is>
       </c>
     </row>
@@ -1182,6 +1287,11 @@
           <t>XM-DAC-41121-2021-ASO-IND</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>2</t>
@@ -1209,7 +1319,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>14304840.71</t>
+          <t>14304841</t>
         </is>
       </c>
     </row>
@@ -1219,6 +1329,11 @@
           <t>XM-DAC-41121-2021-ASO-IRN</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>2</t>
@@ -1246,7 +1361,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>112339947.576</t>
+          <t>112339948</t>
         </is>
       </c>
     </row>
@@ -1256,6 +1371,11 @@
           <t>XM-DAC-41121-2021-ASO-JPN</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>2</t>
@@ -1283,7 +1403,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3895938.67</t>
+          <t>3895939</t>
         </is>
       </c>
     </row>
@@ -1293,6 +1413,11 @@
           <t>XM-DAC-41121-2021-ASO-KAZMCO</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>2</t>
@@ -1320,7 +1445,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>12052810.21</t>
+          <t>12052810</t>
         </is>
       </c>
     </row>
@@ -1330,6 +1455,11 @@
           <t>XM-DAC-41121-2021-ASO-KGZ</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>2</t>
@@ -1357,7 +1487,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>933429.43</t>
+          <t>933429</t>
         </is>
       </c>
     </row>
@@ -1367,6 +1497,11 @@
           <t>XM-DAC-41121-2021-ASO-KOR</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>2</t>
@@ -1394,7 +1529,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2279171.77</t>
+          <t>2281958</t>
         </is>
       </c>
     </row>
@@ -1404,6 +1539,11 @@
           <t>XM-DAC-41121-2021-ASO-LKA</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>2</t>
@@ -1441,6 +1581,11 @@
           <t>XM-DAC-41121-2021-ASO-MMR</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>2</t>
@@ -1468,7 +1613,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>62826141.648</t>
+          <t>62826142</t>
         </is>
       </c>
     </row>
@@ -1478,6 +1623,11 @@
           <t>XM-DAC-41121-2021-ASO-MYS</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>2</t>
@@ -1505,7 +1655,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>22720745.24</t>
+          <t>22720745</t>
         </is>
       </c>
     </row>
@@ -1515,6 +1665,11 @@
           <t>XM-DAC-41121-2021-ASO-NPL</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>2</t>
@@ -1542,7 +1697,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5780364.46</t>
+          <t>5780364</t>
         </is>
       </c>
     </row>
@@ -1552,6 +1707,11 @@
           <t>XM-DAC-41121-2021-ASO-PAK</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>2</t>
@@ -1579,7 +1739,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>116219795.928</t>
+          <t>116219796</t>
         </is>
       </c>
     </row>
@@ -1589,6 +1749,11 @@
           <t>XM-DAC-41121-2021-ASO-PHL</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>2</t>
@@ -1616,7 +1781,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3727940.95</t>
+          <t>3727941</t>
         </is>
       </c>
     </row>
@@ -1626,6 +1791,11 @@
           <t>XM-DAC-41121-2021-ASO-RA</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>2</t>
@@ -1653,7 +1823,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>25159273.66</t>
+          <t>24005875</t>
         </is>
       </c>
     </row>
@@ -1663,6 +1833,11 @@
           <t>XM-DAC-41121-2021-ASO-RB</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>2</t>
@@ -1690,7 +1865,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11747033.222</t>
+          <t>12897646</t>
         </is>
       </c>
     </row>
@@ -1700,6 +1875,11 @@
           <t>XM-DAC-41121-2021-ASO-THAMCO</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>2</t>
@@ -1727,7 +1907,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>23984955.09</t>
+          <t>23984955</t>
         </is>
       </c>
     </row>
@@ -1737,6 +1917,11 @@
           <t>XM-DAC-41121-2021-ASO-TJK</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>2</t>
@@ -1764,7 +1949,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>12026001.7</t>
+          <t>12026002</t>
         </is>
       </c>
     </row>
@@ -1774,6 +1959,11 @@
           <t>XM-DAC-41121-2021-EHGL-BDI</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>2</t>
@@ -1801,7 +1991,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>72741595.9</t>
+          <t>72741596</t>
         </is>
       </c>
     </row>
@@ -1811,6 +2001,11 @@
           <t>XM-DAC-41121-2021-EHGL-DJI</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>2</t>
@@ -1838,7 +2033,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>18182481.26</t>
+          <t>18182481</t>
         </is>
       </c>
     </row>
@@ -1848,6 +2043,11 @@
           <t>XM-DAC-41121-2021-EHGL-ERI</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>2</t>
@@ -1875,7 +2075,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>8445486.75</t>
+          <t>8445487</t>
         </is>
       </c>
     </row>
@@ -1885,6 +2085,11 @@
           <t>XM-DAC-41121-2021-EHGL-ETH</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>2</t>
@@ -1912,7 +2117,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>339108853.54</t>
+          <t>339098854</t>
         </is>
       </c>
     </row>
@@ -1922,6 +2127,11 @@
           <t>XM-DAC-41121-2021-EHGL-KEN</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>2</t>
@@ -1949,7 +2159,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>150135318.04</t>
+          <t>150630318</t>
         </is>
       </c>
     </row>
@@ -1959,6 +2169,11 @@
           <t>XM-DAC-41121-2021-EHGL-OO</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>2</t>
@@ -1986,7 +2201,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2717300.02</t>
+          <t>2717300</t>
         </is>
       </c>
     </row>
@@ -1996,6 +2211,11 @@
           <t>XM-DAC-41121-2021-EHGL-RA</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>2</t>
@@ -2023,7 +2243,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2778149</t>
+          <t>2788149</t>
         </is>
       </c>
     </row>
@@ -2033,6 +2253,11 @@
           <t>XM-DAC-41121-2021-EHGL-RB</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>2</t>
@@ -2060,7 +2285,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>17717504.23</t>
+          <t>17717504</t>
         </is>
       </c>
     </row>
@@ -2070,6 +2295,11 @@
           <t>XM-DAC-41121-2021-EHGL-RWA</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>2</t>
@@ -2097,7 +2327,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>87392644.01</t>
+          <t>87392644</t>
         </is>
       </c>
     </row>
@@ -2107,6 +2337,11 @@
           <t>XM-DAC-41121-2021-EHGL-SDN</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>2</t>
@@ -2134,7 +2369,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>357179199.991</t>
+          <t>357179200</t>
         </is>
       </c>
     </row>
@@ -2144,6 +2379,11 @@
           <t>XM-DAC-41121-2021-EHGL-SOM</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>2</t>
@@ -2171,7 +2411,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>157377748.69</t>
+          <t>157377749</t>
         </is>
       </c>
     </row>
@@ -2181,6 +2421,11 @@
           <t>XM-DAC-41121-2021-EHGL-SSD</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>2</t>
@@ -2208,7 +2453,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>225028427</t>
+          <t>224533427</t>
         </is>
       </c>
     </row>
@@ -2218,6 +2463,11 @@
           <t>XM-DAC-41121-2021-EHGL-TZA</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>2</t>
@@ -2245,7 +2495,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>117099500.01</t>
+          <t>117099500</t>
         </is>
       </c>
     </row>
@@ -2255,6 +2505,11 @@
           <t>XM-DAC-41121-2021-EHGL-UGA</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>2</t>
@@ -2282,7 +2537,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>345907467.32</t>
+          <t>345907467</t>
         </is>
       </c>
     </row>
@@ -2292,6 +2547,11 @@
           <t>XM-DAC-41121-2021-EUR-ALB</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>2</t>
@@ -2329,6 +2589,11 @@
           <t>XM-DAC-41121-2021-EUR-ARM</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>2</t>
@@ -2356,7 +2621,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>15428215.14</t>
+          <t>15428215</t>
         </is>
       </c>
     </row>
@@ -2366,6 +2631,11 @@
           <t>XM-DAC-41121-2021-EUR-AZE</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>2</t>
@@ -2393,7 +2663,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10080561.68</t>
+          <t>10080562</t>
         </is>
       </c>
     </row>
@@ -2403,6 +2673,11 @@
           <t>XM-DAC-41121-2021-EUR-BELMCO</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr">
         <is>
           <t>2</t>
@@ -2430,7 +2705,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>11163880.2</t>
+          <t>11163880</t>
         </is>
       </c>
     </row>
@@ -2440,6 +2715,11 @@
           <t>XM-DAC-41121-2021-EUR-BGR</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>2</t>
@@ -2477,6 +2757,11 @@
           <t>XM-DAC-41121-2021-EUR-BIH</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>2</t>
@@ -2504,7 +2789,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10373049.75</t>
+          <t>10373050</t>
         </is>
       </c>
     </row>
@@ -2514,6 +2799,11 @@
           <t>XM-DAC-41121-2021-EUR-BLR</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>2</t>
@@ -2541,7 +2831,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1213280.85</t>
+          <t>1362711</t>
         </is>
       </c>
     </row>
@@ -2551,6 +2841,11 @@
           <t>XM-DAC-41121-2021-EUR-CYP</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>2</t>
@@ -2588,6 +2883,11 @@
           <t>XM-DAC-41121-2021-EUR-DEU</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>2</t>
@@ -2625,6 +2925,11 @@
           <t>XM-DAC-41121-2021-EUR-ESP</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>2</t>
@@ -2662,6 +2967,11 @@
           <t>XM-DAC-41121-2021-EUR-FRA</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C63" t="inlineStr">
         <is>
           <t>2</t>
@@ -2699,6 +3009,11 @@
           <t>XM-DAC-41121-2021-EUR-GBR</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr">
         <is>
           <t>2</t>
@@ -2736,6 +3051,11 @@
           <t>XM-DAC-41121-2021-EUR-GEO</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>2</t>
@@ -2763,7 +3083,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>6438834.99</t>
+          <t>6438835</t>
         </is>
       </c>
     </row>
@@ -2773,6 +3093,11 @@
           <t>XM-DAC-41121-2021-EUR-GRC</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr">
         <is>
           <t>2</t>
@@ -2810,6 +3135,11 @@
           <t>XM-DAC-41121-2021-EUR-HRV</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr">
         <is>
           <t>2</t>
@@ -2847,6 +3177,11 @@
           <t>XM-DAC-41121-2021-EUR-HUNMCO</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>2</t>
@@ -2874,7 +3209,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>5154884.27</t>
+          <t>5154884</t>
         </is>
       </c>
     </row>
@@ -2884,6 +3219,11 @@
           <t>XM-DAC-41121-2021-EUR-ITAMCO</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>2</t>
@@ -2911,7 +3251,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>19073004.07</t>
+          <t>19073004</t>
         </is>
       </c>
     </row>
@@ -2921,6 +3261,11 @@
           <t>XM-DAC-41121-2021-EUR-KOS</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr">
         <is>
           <t>2</t>
@@ -2958,6 +3303,11 @@
           <t>XM-DAC-41121-2021-EUR-MKD</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr">
         <is>
           <t>2</t>
@@ -2995,6 +3345,11 @@
           <t>XM-DAC-41121-2021-EUR-MLT</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>2</t>
@@ -3022,7 +3377,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1900408.46</t>
+          <t>1900408</t>
         </is>
       </c>
     </row>
@@ -3032,6 +3387,11 @@
           <t>XM-DAC-41121-2021-EUR-MNE</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr">
         <is>
           <t>2</t>
@@ -3069,6 +3429,11 @@
           <t>XM-DAC-41121-2021-EUR-OO</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>2</t>
@@ -3106,6 +3471,11 @@
           <t>XM-DAC-41121-2021-EUR-POL</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>2</t>
@@ -3143,6 +3513,11 @@
           <t>XM-DAC-41121-2021-EUR-RA</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C76" t="inlineStr">
         <is>
           <t>2</t>
@@ -3170,7 +3545,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>10272697.15</t>
+          <t>9561158</t>
         </is>
       </c>
     </row>
@@ -3180,6 +3555,11 @@
           <t>XM-DAC-41121-2021-EUR-RB</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C77" t="inlineStr">
         <is>
           <t>2</t>
@@ -3207,7 +3587,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>13328000</t>
+          <t>13890109</t>
         </is>
       </c>
     </row>
@@ -3217,6 +3597,11 @@
           <t>XM-DAC-41121-2021-EUR-ROU</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C78" t="inlineStr">
         <is>
           <t>2</t>
@@ -3244,7 +3629,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2449222.78</t>
+          <t>2449223</t>
         </is>
       </c>
     </row>
@@ -3254,6 +3639,11 @@
           <t>XM-DAC-41121-2021-EUR-RUS</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C79" t="inlineStr">
         <is>
           <t>2</t>
@@ -3281,7 +3671,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>5740023.53</t>
+          <t>5740024</t>
         </is>
       </c>
     </row>
@@ -3291,6 +3681,11 @@
           <t>XM-DAC-41121-2021-EUR-SRB</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C80" t="inlineStr">
         <is>
           <t>2</t>
@@ -3328,6 +3723,11 @@
           <t>XM-DAC-41121-2021-EUR-SWEMCO</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C81" t="inlineStr">
         <is>
           <t>2</t>
@@ -3365,6 +3765,11 @@
           <t>XM-DAC-41121-2021-EUR-TUR</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C82" t="inlineStr">
         <is>
           <t>2</t>
@@ -3402,6 +3807,11 @@
           <t>XM-DAC-41121-2021-EUR-UKR</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C83" t="inlineStr">
         <is>
           <t>2</t>
@@ -3429,7 +3839,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>29110089.5</t>
+          <t>29110090</t>
         </is>
       </c>
     </row>
@@ -3439,6 +3849,11 @@
           <t>XM-DAC-41121-2021-GLOBALPROG</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>2</t>
@@ -3466,7 +3881,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>545106581.287</t>
+          <t>522003158</t>
         </is>
       </c>
     </row>
@@ -3476,6 +3891,11 @@
           <t>XM-DAC-41121-2021-HQ</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C85" t="inlineStr">
         <is>
           <t>2</t>
@@ -3503,7 +3923,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>221986382.81</t>
+          <t>245089806</t>
         </is>
       </c>
     </row>
@@ -3550,6 +3970,11 @@
           <t>XM-DAC-41121-2021-MENA-DZA</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C87" t="inlineStr">
         <is>
           <t>2</t>
@@ -3577,7 +4002,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>40805299.94</t>
+          <t>40805300</t>
         </is>
       </c>
     </row>
@@ -3587,6 +4012,11 @@
           <t>XM-DAC-41121-2021-MENA-EGY</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C88" t="inlineStr">
         <is>
           <t>2</t>
@@ -3614,7 +4044,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>126633891.19</t>
+          <t>126633891</t>
         </is>
       </c>
     </row>
@@ -3624,6 +4054,11 @@
           <t>XM-DAC-41121-2021-MENA-ESH</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr">
         <is>
           <t>2</t>
@@ -3651,7 +4086,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>4038799.91</t>
+          <t>4038800</t>
         </is>
       </c>
     </row>
@@ -3661,6 +4096,11 @@
           <t>XM-DAC-41121-2021-MENA-IRQ</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr">
         <is>
           <t>2</t>
@@ -3688,7 +4128,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>421528606.83</t>
+          <t>421528607</t>
         </is>
       </c>
     </row>
@@ -3698,6 +4138,11 @@
           <t>XM-DAC-41121-2021-MENA-ISR</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C91" t="inlineStr">
         <is>
           <t>2</t>
@@ -3725,7 +4170,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>6745600.1</t>
+          <t>6745600</t>
         </is>
       </c>
     </row>
@@ -3735,6 +4180,11 @@
           <t>XM-DAC-41121-2021-MENA-JOR</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr">
         <is>
           <t>2</t>
@@ -3762,7 +4212,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>405666703.43</t>
+          <t>405666703</t>
         </is>
       </c>
     </row>
@@ -3772,6 +4222,11 @@
           <t>XM-DAC-41121-2021-MENA-LBN</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C93" t="inlineStr">
         <is>
           <t>2</t>
@@ -3799,7 +4254,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>554413149.629</t>
+          <t>554413150</t>
         </is>
       </c>
     </row>
@@ -3809,6 +4264,11 @@
           <t>XM-DAC-41121-2021-MENA-LBY</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C94" t="inlineStr">
         <is>
           <t>2</t>
@@ -3836,7 +4296,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>93239783.49</t>
+          <t>93239783</t>
         </is>
       </c>
     </row>
@@ -3846,6 +4306,11 @@
           <t>XM-DAC-41121-2021-MENA-MAR</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C95" t="inlineStr">
         <is>
           <t>2</t>
@@ -3873,7 +4338,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>8946099.95</t>
+          <t>8946100</t>
         </is>
       </c>
     </row>
@@ -3883,6 +4348,11 @@
           <t>XM-DAC-41121-2021-MENA-MRT</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C96" t="inlineStr">
         <is>
           <t>2</t>
@@ -3910,7 +4380,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>30981169.29</t>
+          <t>30981169</t>
         </is>
       </c>
     </row>
@@ -3920,6 +4390,11 @@
           <t>XM-DAC-41121-2021-MENA-OO</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C97" t="inlineStr">
         <is>
           <t>2</t>
@@ -3957,6 +4432,11 @@
           <t>XM-DAC-41121-2021-MENA-RA</t>
         </is>
       </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C98" t="inlineStr">
         <is>
           <t>2</t>
@@ -3984,7 +4464,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>47164304.01</t>
+          <t>47081477</t>
         </is>
       </c>
     </row>
@@ -3994,6 +4474,11 @@
           <t>XM-DAC-41121-2021-MENA-RB</t>
         </is>
       </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C99" t="inlineStr">
         <is>
           <t>2</t>
@@ -4021,7 +4506,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>20549745.68</t>
+          <t>20475309</t>
         </is>
       </c>
     </row>
@@ -4031,6 +4516,11 @@
           <t>XM-DAC-41121-2021-MENA-SAUMCO</t>
         </is>
       </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C100" t="inlineStr">
         <is>
           <t>2</t>
@@ -4058,7 +4548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>11637233.27</t>
+          <t>11637233</t>
         </is>
       </c>
     </row>
@@ -4068,6 +4558,11 @@
           <t>XM-DAC-41121-2021-MENA-SYR</t>
         </is>
       </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C101" t="inlineStr">
         <is>
           <t>2</t>
@@ -4095,7 +4590,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>625369994.393</t>
+          <t>625369994</t>
         </is>
       </c>
     </row>
@@ -4105,6 +4600,11 @@
           <t>XM-DAC-41121-2021-MENA-TUN</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C102" t="inlineStr">
         <is>
           <t>2</t>
@@ -4132,7 +4632,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>9987126</t>
+          <t>10144390</t>
         </is>
       </c>
     </row>
@@ -4142,6 +4642,11 @@
           <t>XM-DAC-41121-2021-MENA-YEM</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C103" t="inlineStr">
         <is>
           <t>2</t>
@@ -4169,7 +4674,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>272536326.541</t>
+          <t>272536327</t>
         </is>
       </c>
     </row>
@@ -4179,6 +4684,11 @@
           <t>XM-DAC-41121-2021-SA-AGO</t>
         </is>
       </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C104" t="inlineStr">
         <is>
           <t>2</t>
@@ -4206,7 +4716,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>28892543.44</t>
+          <t>28892543</t>
         </is>
       </c>
     </row>
@@ -4216,6 +4726,11 @@
           <t>XM-DAC-41121-2021-SA-COD</t>
         </is>
       </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C105" t="inlineStr">
         <is>
           <t>2</t>
@@ -4243,7 +4758,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>205436445.26</t>
+          <t>205436445</t>
         </is>
       </c>
     </row>
@@ -4253,6 +4768,11 @@
           <t>XM-DAC-41121-2021-SA-COG</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C106" t="inlineStr">
         <is>
           <t>2</t>
@@ -4280,7 +4800,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>33384172.48</t>
+          <t>33384172</t>
         </is>
       </c>
     </row>
@@ -4290,6 +4810,11 @@
           <t>XM-DAC-41121-2021-SA-MOZ</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C107" t="inlineStr">
         <is>
           <t>2</t>
@@ -4327,6 +4852,11 @@
           <t>XM-DAC-41121-2021-SA-MWI</t>
         </is>
       </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C108" t="inlineStr">
         <is>
           <t>2</t>
@@ -4364,6 +4894,11 @@
           <t>XM-DAC-41121-2021-SA-RA</t>
         </is>
       </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C109" t="inlineStr">
         <is>
           <t>2</t>
@@ -4391,7 +4926,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2897391.54</t>
+          <t>2417392</t>
         </is>
       </c>
     </row>
@@ -4401,6 +4936,11 @@
           <t>XM-DAC-41121-2021-SA-RB</t>
         </is>
       </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C110" t="inlineStr">
         <is>
           <t>2</t>
@@ -4428,7 +4968,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>10557161.19</t>
+          <t>11037161</t>
         </is>
       </c>
     </row>
@@ -4438,6 +4978,11 @@
           <t>XM-DAC-41121-2021-SA-ZAFMCO</t>
         </is>
       </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C111" t="inlineStr">
         <is>
           <t>2</t>
@@ -4465,7 +5010,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>31228854.8</t>
+          <t>31228855</t>
         </is>
       </c>
     </row>
@@ -4475,6 +5020,11 @@
           <t>XM-DAC-41121-2021-SA-ZMB</t>
         </is>
       </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C112" t="inlineStr">
         <is>
           <t>2</t>
@@ -4502,7 +5052,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>22655192.32</t>
+          <t>22655192</t>
         </is>
       </c>
     </row>
@@ -4512,6 +5062,11 @@
           <t>XM-DAC-41121-2021-SA-ZWE</t>
         </is>
       </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C113" t="inlineStr">
         <is>
           <t>2</t>
@@ -4539,7 +5094,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>9530507.36</t>
+          <t>9530507</t>
         </is>
       </c>
     </row>
@@ -4549,6 +5104,11 @@
           <t>XM-DAC-41121-2021-WCA-BFA</t>
         </is>
       </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C114" t="inlineStr">
         <is>
           <t>2</t>
@@ -4576,7 +5136,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>91441576.88</t>
+          <t>107326577</t>
         </is>
       </c>
     </row>
@@ -4586,6 +5146,11 @@
           <t>XM-DAC-41121-2021-WCA-CAF</t>
         </is>
       </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C115" t="inlineStr">
         <is>
           <t>2</t>
@@ -4613,7 +5178,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>48752427.88</t>
+          <t>48752428</t>
         </is>
       </c>
     </row>
@@ -4623,6 +5188,11 @@
           <t>XM-DAC-41121-2021-WCA-CIV</t>
         </is>
       </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C116" t="inlineStr">
         <is>
           <t>2</t>
@@ -4650,7 +5220,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>17909177.05</t>
+          <t>17909177</t>
         </is>
       </c>
     </row>
@@ -4660,6 +5230,11 @@
           <t>XM-DAC-41121-2021-WCA-CMRMCO</t>
         </is>
       </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C117" t="inlineStr">
         <is>
           <t>2</t>
@@ -4687,7 +5262,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>100032454.42</t>
+          <t>100032454</t>
         </is>
       </c>
     </row>
@@ -4697,6 +5272,11 @@
           <t>XM-DAC-41121-2021-WCA-GHA</t>
         </is>
       </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C118" t="inlineStr">
         <is>
           <t>2</t>
@@ -4724,7 +5304,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>7537169.001</t>
+          <t>8029169</t>
         </is>
       </c>
     </row>
@@ -4734,6 +5314,11 @@
           <t>XM-DAC-41121-2021-WCA-LBR</t>
         </is>
       </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C119" t="inlineStr">
         <is>
           <t>2</t>
@@ -4761,7 +5346,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>12280543.96</t>
+          <t>12925544</t>
         </is>
       </c>
     </row>
@@ -4771,6 +5356,11 @@
           <t>XM-DAC-41121-2021-WCA-MLI</t>
         </is>
       </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C120" t="inlineStr">
         <is>
           <t>2</t>
@@ -4798,7 +5388,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>57790009.97</t>
+          <t>59262010</t>
         </is>
       </c>
     </row>
@@ -4808,6 +5398,11 @@
           <t>XM-DAC-41121-2021-WCA-NER</t>
         </is>
       </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C121" t="inlineStr">
         <is>
           <t>2</t>
@@ -4835,7 +5430,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>111205863.75</t>
+          <t>111205864</t>
         </is>
       </c>
     </row>
@@ -4845,6 +5440,11 @@
           <t>XM-DAC-41121-2021-WCA-NGA</t>
         </is>
       </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C122" t="inlineStr">
         <is>
           <t>2</t>
@@ -4872,7 +5472,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>97966874.84</t>
+          <t>97934875</t>
         </is>
       </c>
     </row>
@@ -4882,6 +5482,11 @@
           <t>XM-DAC-41121-2021-WCA-RA</t>
         </is>
       </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C123" t="inlineStr">
         <is>
           <t>2</t>
@@ -4909,7 +5514,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>8350265</t>
+          <t>5773265</t>
         </is>
       </c>
     </row>
@@ -4919,6 +5524,11 @@
           <t>XM-DAC-41121-2021-WCA-RB</t>
         </is>
       </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C124" t="inlineStr">
         <is>
           <t>2</t>
@@ -4946,7 +5556,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>15673641.76</t>
+          <t>15673642</t>
         </is>
       </c>
     </row>
@@ -4956,6 +5566,11 @@
           <t>XM-DAC-41121-2021-WCA-SENMCO</t>
         </is>
       </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C125" t="inlineStr">
         <is>
           <t>2</t>
@@ -4983,7 +5598,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>17315817.85</t>
+          <t>17315818</t>
         </is>
       </c>
     </row>
@@ -4993,6 +5608,11 @@
           <t>XM-DAC-41121-2021-WCA-TCD</t>
         </is>
       </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C126" t="inlineStr">
         <is>
           <t>2</t>
@@ -5020,7 +5640,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>141444578.21</t>
+          <t>125559578</t>
         </is>
       </c>
     </row>
